--- a/ConsumptionCalculator/bin/Debug/Database.xlsx
+++ b/ConsumptionCalculator/bin/Debug/Database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48071F57-3ABE-41D7-9ABE-CBB0102911E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB4396-63E8-49EE-AD43-CF03E9776A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Socket 1151</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Nvidia2</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Энергопотребление</t>
+  </si>
+  <si>
+    <t>Сокет</t>
   </si>
 </sst>
 </file>
@@ -391,32 +403,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>60</v>
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -424,27 +437,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,9 +468,23 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>125</v>
       </c>
     </row>
@@ -469,40 +496,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754E8CB3-B222-4BB6-ABFE-E010FE9691FE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConsumptionCalculator/bin/Debug/Database.xlsx
+++ b/ConsumptionCalculator/bin/Debug/Database.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB4396-63E8-49EE-AD43-CF03E9776A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D4509-F638-4DE1-B31C-1430F597C9CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Processors" sheetId="1" r:id="rId1"/>
-    <sheet name="VideoCards" sheetId="2" r:id="rId2"/>
+    <sheet name="Процессоры" sheetId="1" r:id="rId1"/>
+    <sheet name="Видеокарты" sheetId="2" r:id="rId2"/>
+    <sheet name="Блоки питания" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
   <si>
     <t>Socket 1151</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Intel Core i5-7400</t>
   </si>
   <si>
-    <t>Socket 1152</t>
-  </si>
-  <si>
     <t>Socket АМ3+</t>
   </si>
   <si>
@@ -53,37 +51,402 @@
     <t>Nvidia</t>
   </si>
   <si>
-    <t>Some model</t>
-  </si>
-  <si>
-    <t>Some model too</t>
-  </si>
-  <si>
-    <t>Nvidia2</t>
-  </si>
-  <si>
     <t>Производитель</t>
   </si>
   <si>
     <t>Модель</t>
   </si>
   <si>
-    <t>Энергопотребление</t>
-  </si>
-  <si>
     <t>Сокет</t>
+  </si>
+  <si>
+    <t>Intel Core i5-6600к</t>
+  </si>
+  <si>
+    <t>Intel Pentium g4560</t>
+  </si>
+  <si>
+    <t>Intel Pentium g4600</t>
+  </si>
+  <si>
+    <t>Intel Core i3-6100</t>
+  </si>
+  <si>
+    <t>Intel Core i5-6400</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7600к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-6700к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-6700</t>
+  </si>
+  <si>
+    <t>Intel Core i7-7700</t>
+  </si>
+  <si>
+    <t>Intel Core i7-7700к</t>
+  </si>
+  <si>
+    <t>Socket 1150</t>
+  </si>
+  <si>
+    <t>Intel Pentium g3460</t>
+  </si>
+  <si>
+    <t>Intel Celeron g1850</t>
+  </si>
+  <si>
+    <t>Intel Core i3-4370</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4460</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4670</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4690</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4690к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4770</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4790</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4790к</t>
+  </si>
+  <si>
+    <t>Socket 2011</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3930к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4960х</t>
+  </si>
+  <si>
+    <t>Xeon E5-1620</t>
+  </si>
+  <si>
+    <t>Xeon E5-1650</t>
+  </si>
+  <si>
+    <t>Xeon E5-1660v2</t>
+  </si>
+  <si>
+    <t>Xeon E5-2640</t>
+  </si>
+  <si>
+    <t>Xeon E5-2670</t>
+  </si>
+  <si>
+    <t>Xeon E5-2680v2</t>
+  </si>
+  <si>
+    <t>Socket 1155</t>
+  </si>
+  <si>
+    <t>Intel Celeron g1610</t>
+  </si>
+  <si>
+    <t>Intel Core i3-2100</t>
+  </si>
+  <si>
+    <t>Intel Core i3-3220</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2500</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2500к</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3450</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3470к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-2600</t>
+  </si>
+  <si>
+    <t>Intel Core i7-2600к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3770</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3770к</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3770т</t>
+  </si>
+  <si>
+    <t>AMD FX-4300</t>
+  </si>
+  <si>
+    <t>AMD FX-6100</t>
+  </si>
+  <si>
+    <t>AMD FX-6300</t>
+  </si>
+  <si>
+    <t>AMD FX-6350</t>
+  </si>
+  <si>
+    <t>AMD FX-8120</t>
+  </si>
+  <si>
+    <t>AMD FX-8320е</t>
+  </si>
+  <si>
+    <t>AMD FX-8350</t>
+  </si>
+  <si>
+    <t>AMD FX-9590</t>
+  </si>
+  <si>
+    <t>Socket АМ4</t>
+  </si>
+  <si>
+    <t>Ryzen r3 1200</t>
+  </si>
+  <si>
+    <t>Ryzen r3 2200g</t>
+  </si>
+  <si>
+    <t>Ryzen r3 1300x</t>
+  </si>
+  <si>
+    <t>Ryzen r7 2700x</t>
+  </si>
+  <si>
+    <t>Ryzen r7 2700</t>
+  </si>
+  <si>
+    <t>Ryzen r7 1800x</t>
+  </si>
+  <si>
+    <t>Ryzen r7 1700x</t>
+  </si>
+  <si>
+    <t>Ryzen r7 1700</t>
+  </si>
+  <si>
+    <t>Ryzen r5 2600x</t>
+  </si>
+  <si>
+    <t>Ryzen r5 2600</t>
+  </si>
+  <si>
+    <t>Ryzen r5 1600x</t>
+  </si>
+  <si>
+    <t>Ryzen r5 1600</t>
+  </si>
+  <si>
+    <t>Ryzen r5 2400g</t>
+  </si>
+  <si>
+    <t>Ryzen r5 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce gt 740 </t>
+  </si>
+  <si>
+    <t>Geforce gtx 750ti</t>
+  </si>
+  <si>
+    <t>Geforce gtx 760</t>
+  </si>
+  <si>
+    <t>Geforce gtx 770</t>
+  </si>
+  <si>
+    <t>Geforce gtx 780</t>
+  </si>
+  <si>
+    <t>Geforce gtx 780ti</t>
+  </si>
+  <si>
+    <t>Geforce gtx 950</t>
+  </si>
+  <si>
+    <t>Geforce gtx 960</t>
+  </si>
+  <si>
+    <t>Geforce gtx 970</t>
+  </si>
+  <si>
+    <t>Geforce gtx 980</t>
+  </si>
+  <si>
+    <t>Geforce gtx 980ti</t>
+  </si>
+  <si>
+    <t>Geforce gtx 1050</t>
+  </si>
+  <si>
+    <t>Geforce gtx 1050ti</t>
+  </si>
+  <si>
+    <t>Geforce gtx 1060</t>
+  </si>
+  <si>
+    <t>Geforce gtx 1070</t>
+  </si>
+  <si>
+    <t>Geforce gtx 1070ti</t>
+  </si>
+  <si>
+    <t>AMD/ATI</t>
+  </si>
+  <si>
+    <t>Geforce Rtx 2080ti</t>
+  </si>
+  <si>
+    <t>Geforce Rtx 2080</t>
+  </si>
+  <si>
+    <t>Geforce Rtx 2070</t>
+  </si>
+  <si>
+    <t>Geforce Gtx 1080ti</t>
+  </si>
+  <si>
+    <t>Geforce Gtx 1080</t>
+  </si>
+  <si>
+    <t>Radeon R7 360</t>
+  </si>
+  <si>
+    <t>Radeon R7 370</t>
+  </si>
+  <si>
+    <t>Radeon R9 270</t>
+  </si>
+  <si>
+    <t>Radeon R9 270x</t>
+  </si>
+  <si>
+    <t>Radeon R9 280</t>
+  </si>
+  <si>
+    <t>Radeon R9 280x</t>
+  </si>
+  <si>
+    <t>Radeon R9 285</t>
+  </si>
+  <si>
+    <t>Radeon R9 290</t>
+  </si>
+  <si>
+    <t>Radeon R9 290x</t>
+  </si>
+  <si>
+    <t>Radeon R9 295</t>
+  </si>
+  <si>
+    <t>Radeon R9 295x</t>
+  </si>
+  <si>
+    <t>Radeon R9 380</t>
+  </si>
+  <si>
+    <t>Radeon R9 380x</t>
+  </si>
+  <si>
+    <t>Radeon R9 390x</t>
+  </si>
+  <si>
+    <t>Radeon R9 390</t>
+  </si>
+  <si>
+    <t>Radeon RX 460</t>
+  </si>
+  <si>
+    <t>Radeon RX 470</t>
+  </si>
+  <si>
+    <t>Radeon RX 480</t>
+  </si>
+  <si>
+    <t>Radeon RX 560</t>
+  </si>
+  <si>
+    <t>Radeon RX 570</t>
+  </si>
+  <si>
+    <t>Radeon RX 580</t>
+  </si>
+  <si>
+    <t>Radeon RX 590</t>
+  </si>
+  <si>
+    <t>Radeon RX Vega 56</t>
+  </si>
+  <si>
+    <t>Radeon RX Vega 64</t>
+  </si>
+  <si>
+    <t>Ссылка на блок питания</t>
+  </si>
+  <si>
+    <t>Максимальная мощность, Вт</t>
+  </si>
+  <si>
+    <t>Энергопотребление, Вт</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/1ac0a1f82c523361/blok-pitania-deepcool-de-380w-de380/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/fd78ea96d6a43361/blok-pitania-chieftec-smart-series-350w-sfx-350bs/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/8014847d29253330/blok-pitania-fsp-pnr-i-450w-atx-450pnr-i/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/c02358647c8d3361/blok-pitania-cougar-stx-550w-cgr-st-550/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/8014849629253330/blok-pitania-thermaltake-tr2-s-650w-trs-0650p-2/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/e74e4dd76a8b3330/blok-pitania-coolermaster-g750m-750w-rs750-amaab1-eu/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/e716ddac5fff3361/blok-pitania-aerocool-kcas-1000w-kcas-1000m/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/9fc21a5f743f3120/blok-pitania-thermaltake-bajkal-1500w-w0431re/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,6 +460,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,13 +497,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -218,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,90 +809,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="7">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D6" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D52" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>125</v>
-      </c>
+      <c r="B62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -495,51 +1792,614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754E8CB3-B222-4BB6-ABFE-E010FE9691FE}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>250</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>350</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>450</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>550</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>650</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>750</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/ConsumptionCalculator/bin/Debug/Database.xlsx
+++ b/ConsumptionCalculator/bin/Debug/Database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D4509-F638-4DE1-B31C-1430F597C9CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CE4A0-BB95-4C12-8510-F818BEAAE293}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Процессоры" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="137">
   <si>
     <t>Socket 1151</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Radeon RX Vega 64</t>
   </si>
   <si>
-    <t>Ссылка на блок питания</t>
-  </si>
-  <si>
     <t>Максимальная мощность, Вт</t>
   </si>
   <si>
@@ -427,6 +424,15 @@
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/9fc21a5f743f3120/blok-pitania-thermaltake-bajkal-1500w-w0431re/</t>
+  </si>
+  <si>
+    <t>Магазин 1</t>
+  </si>
+  <si>
+    <t>Магазин 2</t>
+  </si>
+  <si>
+    <t>Магазин 3</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -835,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,87 +2325,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="110.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="111.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="111.42578125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>250</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>350</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>450</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>550</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>650</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>750</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1600</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
